--- a/zrap/expdata/1002.xlsx
+++ b/zrap/expdata/1002.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>cms</t>
   </si>
@@ -71,7 +71,10 @@
     <t>syst_c</t>
   </si>
   <si>
-    <t>Z_xsec</t>
+    <t>Z_xsec_norm</t>
+  </si>
+  <si>
+    <t>normalization</t>
   </si>
 </sst>
 </file>
@@ -392,20 +395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="11" width="10.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
     <col min="1023" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -442,8 +446,11 @@
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -480,8 +487,11 @@
       <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -518,8 +528,11 @@
       <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -556,8 +569,11 @@
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,8 +610,11 @@
       <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -632,44 +651,47 @@
       <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>

--- a/zrap/expdata/1002.xlsx
+++ b/zrap/expdata/1002.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D2" s="1">
         <v>-0.74</v>
@@ -499,7 +499,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D3" s="1">
         <v>-0.41</v>
@@ -540,7 +540,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D4" s="1">
         <v>0.02</v>
@@ -581,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D5" s="1">
         <v>0.37</v>
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D6" s="1">
         <v>0.71</v>
